--- a/scripts/trait-effects/szn1/head.xlsx
+++ b/scripts/trait-effects/szn1/head.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agapo\Desktop\Mazh\Untitled Folder\star-wolvez-squad-builder\scripts\trait-effects\szn1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1820F797-2B72-438E-B102-C2C2C9BF401A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A983191F-F84B-468F-A769-DCFBC330FF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7EAF402-BE40-4267-B332-63272619C63A}"/>
   </bookViews>
@@ -215,10 +215,10 @@
     <t>PVP: Heavy Attacks from opponent do 10% less damage.</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>RARITY</t>
+    <t>TOTAL #</t>
+  </si>
+  <si>
+    <t>% RARITY</t>
   </si>
 </sst>
 </file>
